--- a/biology/Botanique/Parc_du_Moulin_à_Tan/Parc_du_Moulin_à_Tan.xlsx
+++ b/biology/Botanique/Parc_du_Moulin_à_Tan/Parc_du_Moulin_à_Tan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_du_Moulin_%C3%A0_Tan</t>
+          <t>Parc_du_Moulin_à_Tan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc du Moulin à Tan est un parc situé à Sens (Yonne).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_du_Moulin_%C3%A0_Tan</t>
+          <t>Parc_du_Moulin_à_Tan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut créé en 1887 par la famille Domange.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_du_Moulin_%C3%A0_Tan</t>
+          <t>Parc_du_Moulin_à_Tan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,25 +559,134 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nature et environnement
-Le parc rassemble de nombreuses espèces de plantes et d'arbres. De plus, des serres tropicales de 600 m2 et situées sur la gauche après l'entrée du parc abritent 1 500 variétés de plantes tropicales[1].
+          <t>Nature et environnement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc rassemble de nombreuses espèces de plantes et d'arbres. De plus, des serres tropicales de 600 m2 et situées sur la gauche après l'entrée du parc abritent 1 500 variétés de plantes tropicales.
 En 2011, le parc a obtenu le label Jardin Remarquable, pour une durée de 5 ans. Ce dernier a été renouvelé en 2016.
-En 2018, le parc a connu d'importantes inondations qui ont détruit de nombreuses plantes et entraîne la fermeture du parc au public durant près de 2 mois[2].
-Animaux
-Plusieurs espèces d'animaux habitent ce parc dans des enclos (liste non exhaustive) :
+En 2018, le parc a connu d'importantes inondations qui ont détruit de nombreuses plantes et entraîne la fermeture du parc au public durant près de 2 mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_du_Moulin_à_Tan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_Moulin_%C3%A0_Tan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le parc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces d'animaux habitent ce parc dans des enclos (liste non exhaustive) :
 des chevaux
 des ânes
 des canards et oies
 des chèvres
 des oiseaux.
 Il est également possible d'y observer d'autres animaux tels que des écureuils.
-Équipements
-Le parc comprend plusieurs équipements :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_du_Moulin_à_Tan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_Moulin_%C3%A0_Tan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le parc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Équipements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le parc comprend plusieurs équipements :
 des équipements de musculation, située dans la zone boisée
 des jeux pour enfants et un carrousel ainsi qu'un terrain de football situés au cœur du parc
-de nombreux bancs et tables de pique nique sont répartis sur le parc
-Tourisme
-Ce parc est le deuxième lieu le plus visité du département avec 200 000 visites annuelles[3];
+de nombreux bancs et tables de pique nique sont répartis sur le parc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_du_Moulin_à_Tan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_Moulin_%C3%A0_Tan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le parc</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tourisme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parc est le deuxième lieu le plus visité du département avec 200 000 visites annuelles;
 			Les serres tropicales.
 			Une aire de jeu au cœur du parc.
 			Un palmier et des géraniums.
